--- a/biology/Histoire de la zoologie et de la botanique/Alphonse_Péron/Alphonse_Péron.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alphonse_Péron/Alphonse_Péron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alphonse_P%C3%A9ron</t>
+          <t>Alphonse_Péron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alphonse Péron, de son nom complet Pierre Alphonse Péron, né le 29 novembre 1834 à Saint-Fargeau dans l'Yonne et décédé le 2 juillet 1908 à Auxerre dans le même département, est un paléontologue amateur français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alphonse_P%C3%A9ron</t>
+          <t>Alphonse_Péron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir réalisé ses études au collège d'Auxerre[1], Alphonse Péron est admis à 19 ans à l'Ecole militaire de Saint-Cyr. S'il présente depuis toujours un certain intérêt envers les sciences naturelles, c'est au fil de ses affectations au cours de sa carrière militaire qu'il va développer sa passion pour la géologie et la paléontologie, et réaliser parallèlement à sa carrière militaire de nombreux travaux scientifiques.
-Sa blessure à Sedan en septembre 1870 le contraint à suspendre temporairement sa carrière militaire. L'armistice franco-allemand de 1871 lui permet de revenir sur son lieu de naissance, où il marie sa cousine Amélie Dautun, avec laquelle il a deux enfants, René et Louisa[2]. Il participe notamment à l'étude géologique du Tarn-et-Garonne ou encore du Midi.
-En 1875, il devient sous-intendant et est amené à réaliser plusieurs déplacements en France. Parallèlement à ce poste, il rédige et co-écrit de nombreux ouvrages, parmi lesquels sa Description des mollusques fossiles des terrains crétacés de la région sud des hauts-plateaux de la Tunisie recueillis en 1885 et 1886 par M. Philippe Thomas[1].
-En 1896, il reçoit le rang de Commandeur de la Légion d'honneur. En 1900, il devient président de la Société des sciences historiques et naturelles de l'Yonne, et en 1905, il est nommé président de la Société géologique de France[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir réalisé ses études au collège d'Auxerre, Alphonse Péron est admis à 19 ans à l'Ecole militaire de Saint-Cyr. S'il présente depuis toujours un certain intérêt envers les sciences naturelles, c'est au fil de ses affectations au cours de sa carrière militaire qu'il va développer sa passion pour la géologie et la paléontologie, et réaliser parallèlement à sa carrière militaire de nombreux travaux scientifiques.
+Sa blessure à Sedan en septembre 1870 le contraint à suspendre temporairement sa carrière militaire. L'armistice franco-allemand de 1871 lui permet de revenir sur son lieu de naissance, où il marie sa cousine Amélie Dautun, avec laquelle il a deux enfants, René et Louisa. Il participe notamment à l'étude géologique du Tarn-et-Garonne ou encore du Midi.
+En 1875, il devient sous-intendant et est amené à réaliser plusieurs déplacements en France. Parallèlement à ce poste, il rédige et co-écrit de nombreux ouvrages, parmi lesquels sa Description des mollusques fossiles des terrains crétacés de la région sud des hauts-plateaux de la Tunisie recueillis en 1885 et 1886 par M. Philippe Thomas.
+En 1896, il reçoit le rang de Commandeur de la Légion d'honneur. En 1900, il devient président de la Société des sciences historiques et naturelles de l'Yonne, et en 1905, il est nommé président de la Société géologique de France.
 Alphonse Péron meurt à Auxerre, le 2 juillet 1908.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alphonse_P%C3%A9ron</t>
+          <t>Alphonse_Péron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi les publications d'Alphonse Péron, on retrouve :
 Essai d'une description géologique de l'Algérie pour servir de guide aux géologues dans l'Afrique française, Paris, G. Masson, 1883, 202 p. (lire en ligne)
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alphonse_P%C3%A9ron</t>
+          <t>Alphonse_Péron</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de l'Instruction publique (1885).
  Commandeur de l'ordre national de la Légion d'honneur (1896).</t>
